--- a/数据表/NPC.xlsx
+++ b/数据表/NPC.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>//注释,npcid</t>
   </si>
@@ -49,7 +49,7 @@
     <t>品质1=绿，2=蓝，3=紫，4=橙</t>
   </si>
   <si>
-    <t>阵营</t>
+    <t>阵营1=默认，2=玩家，3=怪</t>
   </si>
   <si>
     <t>性别1=男，2=女</t>
@@ -157,34 +157,73 @@
     <t>double</t>
   </si>
   <si>
-    <t>竞技场剑盾士兵-帝国</t>
-  </si>
-  <si>
-    <t>竞技场剑盾士兵-匈人</t>
-  </si>
-  <si>
-    <t>竞技场剑盾士兵-罗马</t>
-  </si>
-  <si>
-    <t>竞技场剑盾士兵-日耳曼</t>
-  </si>
-  <si>
-    <t>竞技场剑盾士兵5</t>
-  </si>
-  <si>
-    <t>竞技场剑盾士兵6</t>
-  </si>
-  <si>
-    <t>竞技场剑盾士兵7</t>
-  </si>
-  <si>
-    <t>竞技场剑盾士兵8</t>
-  </si>
-  <si>
-    <t>竞技场剑弓士兵-帝国</t>
-  </si>
-  <si>
-    <t>竞技场剑弓士兵-匈人</t>
+    <t>刀盾兵</t>
+  </si>
+  <si>
+    <t>(Att,2),(Hp,10)</t>
+  </si>
+  <si>
+    <t>(Speed,5),(Vision,10)</t>
+  </si>
+  <si>
+    <t>巨盾兵</t>
+  </si>
+  <si>
+    <t>(Att,2),(Hp,20)</t>
+  </si>
+  <si>
+    <t>短弓手</t>
+  </si>
+  <si>
+    <t>(Att,4),(Hp,5)</t>
+  </si>
+  <si>
+    <t>长弓手</t>
+  </si>
+  <si>
+    <t>(Att,5),(Hp,8)</t>
+  </si>
+  <si>
+    <t>轻骑兵</t>
+  </si>
+  <si>
+    <t>(Att,3),(Hp,7)</t>
+  </si>
+  <si>
+    <t>(Speed,10),(Vision,10)</t>
+  </si>
+  <si>
+    <t>重骑兵</t>
+  </si>
+  <si>
+    <t>(Att,4),(Hp,10)</t>
+  </si>
+  <si>
+    <t>冲车</t>
+  </si>
+  <si>
+    <t>(Att,1),(Hp,20)</t>
+  </si>
+  <si>
+    <t>(Speed,3),(Vision,10)</t>
+  </si>
+  <si>
+    <t>投石车</t>
+  </si>
+  <si>
+    <t>(Att,2),(Hp,30)</t>
+  </si>
+  <si>
+    <t>军医</t>
+  </si>
+  <si>
+    <t>(Att,1),(Hp,15)</t>
+  </si>
+  <si>
+    <t>巫医</t>
+  </si>
+  <si>
+    <t>(Att,2),(Hp,25)</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1135,7 +1174,7 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="19" width="18.375" customWidth="1"/>
@@ -1162,7 +1201,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1171,34 +1210,34 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" t="s">
@@ -1209,7 +1248,6 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>21</v>
       </c>
@@ -1269,7 +1307,6 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>39</v>
       </c>
@@ -1325,19 +1362,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:17">
       <c r="A4">
-        <v>200010001</v>
+        <v>100010001</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
       <c r="C4">
-        <v>20010001</v>
+        <v>1000016</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
       <c r="H4">
         <v>1</v>
       </c>
@@ -1345,214 +1388,807 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>100020001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>1000017</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>100030001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>1000018</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>100040001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>1000019</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>100050001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>1000020</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>100060001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>1000021</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:17">
+      <c r="A10">
+        <v>100070001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>1000022</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>100080001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>1000023</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>100090001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>1000024</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>100100001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>1000025</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:17">
+      <c r="A14">
         <v>200010001</v>
       </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>1000016</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>200010002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>20010002</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>200010001</v>
+    <row r="15" customFormat="1" spans="1:17">
+      <c r="A15">
+        <v>200020001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>1000017</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>200010003</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="16" customFormat="1" spans="1:17">
+      <c r="A16">
+        <v>200030001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>1000018</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
-        <v>20010003</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>200010001</v>
+      <c r="Q16">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>200010004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>20010004</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>200010001</v>
+    <row r="17" customFormat="1" spans="1:17">
+      <c r="A17">
+        <v>200040001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>1000019</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>200010005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>20010005</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>200010001</v>
+    <row r="18" customFormat="1" spans="1:17">
+      <c r="A18">
+        <v>200050001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>1000020</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>200010006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9">
-        <v>20010006</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>200010001</v>
+    <row r="19" customFormat="1" spans="1:17">
+      <c r="A19">
+        <v>200060001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>1000021</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:10">
-      <c r="A10">
-        <v>200010007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>20010007</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>200010001</v>
+    <row r="20" customFormat="1" spans="1:17">
+      <c r="A20">
+        <v>200070001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>1000022</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>200010008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>20010008</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>200010001</v>
+    <row r="21" customFormat="1" spans="1:17">
+      <c r="A21">
+        <v>200080001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>1000023</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>200010009</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>20020001</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>200020001</v>
+    <row r="22" customFormat="1" spans="1:17">
+      <c r="A22">
+        <v>200090001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>1000024</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>200010010</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>20020002</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>200020001</v>
+    <row r="23" customFormat="1" spans="1:17">
+      <c r="A23">
+        <v>200100001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>1000025</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/NPC.xlsx
+++ b/数据表/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,12 +839,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1163,13 +1160,13 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
@@ -1201,7 +1198,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1390,6 +1387,9 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>1001001</v>
+      </c>
       <c r="L4">
         <v>2</v>
       </c>
@@ -1431,6 +1431,9 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>1001002</v>
+      </c>
       <c r="L5">
         <v>3</v>
       </c>
@@ -1472,6 +1475,9 @@
       <c r="J6">
         <v>2</v>
       </c>
+      <c r="K6">
+        <v>1001003</v>
+      </c>
       <c r="L6">
         <v>2</v>
       </c>
@@ -1513,6 +1519,9 @@
       <c r="J7">
         <v>2</v>
       </c>
+      <c r="K7">
+        <v>1001004</v>
+      </c>
       <c r="L7">
         <v>3</v>
       </c>
@@ -1554,6 +1563,9 @@
       <c r="J8">
         <v>3</v>
       </c>
+      <c r="K8">
+        <v>1001005</v>
+      </c>
       <c r="L8">
         <v>2</v>
       </c>
@@ -1595,6 +1607,9 @@
       <c r="J9">
         <v>3</v>
       </c>
+      <c r="K9">
+        <v>1001006</v>
+      </c>
       <c r="L9">
         <v>3</v>
       </c>
@@ -1782,7 +1797,6 @@
       <c r="C14">
         <v>1000016</v>
       </c>
-      <c r="D14"/>
       <c r="E14">
         <v>2</v>
       </c>
@@ -1800,6 +1814,9 @@
       </c>
       <c r="J14">
         <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1001001</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1824,7 +1841,6 @@
       <c r="C15">
         <v>1000017</v>
       </c>
-      <c r="D15"/>
       <c r="E15">
         <v>2</v>
       </c>
@@ -1842,6 +1858,9 @@
       </c>
       <c r="J15">
         <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1001002</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -1866,7 +1885,6 @@
       <c r="C16">
         <v>1000018</v>
       </c>
-      <c r="D16"/>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1884,6 +1902,9 @@
       </c>
       <c r="J16">
         <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1001003</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1908,7 +1929,6 @@
       <c r="C17">
         <v>1000019</v>
       </c>
-      <c r="D17"/>
       <c r="E17">
         <v>2</v>
       </c>
@@ -1926,6 +1946,9 @@
       </c>
       <c r="J17">
         <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1001004</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -1950,7 +1973,6 @@
       <c r="C18">
         <v>1000020</v>
       </c>
-      <c r="D18"/>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1968,6 +1990,9 @@
       </c>
       <c r="J18">
         <v>3</v>
+      </c>
+      <c r="K18">
+        <v>1001005</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1992,7 +2017,6 @@
       <c r="C19">
         <v>1000021</v>
       </c>
-      <c r="D19"/>
       <c r="E19">
         <v>2</v>
       </c>
@@ -2010,6 +2034,9 @@
       </c>
       <c r="J19">
         <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1001006</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -2075,7 +2102,6 @@
       <c r="C21">
         <v>1000023</v>
       </c>
-      <c r="D21"/>
       <c r="E21">
         <v>2</v>
       </c>
@@ -2117,7 +2143,6 @@
       <c r="C22">
         <v>1000024</v>
       </c>
-      <c r="D22"/>
       <c r="E22">
         <v>2</v>
       </c>
@@ -2159,7 +2184,6 @@
       <c r="C23">
         <v>1000025</v>
       </c>
-      <c r="D23"/>
       <c r="E23">
         <v>2</v>
       </c>

--- a/数据表/NPC.xlsx
+++ b/数据表/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>//注释,npcid</t>
   </si>
@@ -73,13 +73,19 @@
     <t>士兵高级基础属性(属性id，值)，(属性id，值)</t>
   </si>
   <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>追击距离</t>
+  </si>
+  <si>
     <t>主动技能</t>
   </si>
   <si>
     <t>被动技能</t>
   </si>
   <si>
-    <t>士兵建造时间单位秒</t>
+    <t>士兵建造时间单位毫秒秒</t>
   </si>
   <si>
     <t>下一级士兵</t>
@@ -130,6 +136,12 @@
     <t>avalue_senior</t>
   </si>
   <si>
+    <t>Attack_range</t>
+  </si>
+  <si>
+    <t>Pursuit_distance</t>
+  </si>
+  <si>
     <t>skill</t>
   </si>
   <si>
@@ -160,70 +172,64 @@
     <t>刀盾兵</t>
   </si>
   <si>
-    <t>(Att,2),(Hp,10)</t>
-  </si>
-  <si>
-    <t>(Speed,5),(Vision,10)</t>
+    <t>(Att,2),(Hp,10),(Speed,5)</t>
+  </si>
+  <si>
+    <t>(Vision,10)</t>
   </si>
   <si>
     <t>巨盾兵</t>
   </si>
   <si>
-    <t>(Att,2),(Hp,20)</t>
+    <t>(Att,2),(Hp,20),(Speed,5)</t>
   </si>
   <si>
     <t>短弓手</t>
   </si>
   <si>
-    <t>(Att,4),(Hp,5)</t>
+    <t>(Att,4),(Hp,5),(Speed,5)</t>
   </si>
   <si>
     <t>长弓手</t>
   </si>
   <si>
-    <t>(Att,5),(Hp,8)</t>
+    <t>(Att,5),(Hp,8),(Speed,5)</t>
   </si>
   <si>
     <t>轻骑兵</t>
   </si>
   <si>
-    <t>(Att,3),(Hp,7)</t>
-  </si>
-  <si>
-    <t>(Speed,10),(Vision,10)</t>
+    <t>(Att,3),(Hp,7),(Speed,10)</t>
   </si>
   <si>
     <t>重骑兵</t>
   </si>
   <si>
-    <t>(Att,4),(Hp,10)</t>
+    <t>(Att,4),(Hp,10),(Speed,10)</t>
   </si>
   <si>
     <t>冲车</t>
   </si>
   <si>
-    <t>(Att,1),(Hp,20)</t>
-  </si>
-  <si>
-    <t>(Speed,3),(Vision,10)</t>
+    <t>(Att,1),(Hp,20),(Speed,3)</t>
   </si>
   <si>
     <t>投石车</t>
   </si>
   <si>
-    <t>(Att,2),(Hp,30)</t>
+    <t>(Att,2),(Hp,30),(Speed,3)</t>
   </si>
   <si>
     <t>军医</t>
   </si>
   <si>
-    <t>(Att,1),(Hp,15)</t>
+    <t>(Att,1),(Hp,15),(Speed,5)</t>
   </si>
   <si>
     <t>巫医</t>
   </si>
   <si>
-    <t>(Att,2),(Hp,25)</t>
+    <t>(Att,2),(Hp,25),(Speed,5)</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1171,15 +1177,18 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="19" width="18.375" customWidth="1"/>
-    <col min="20" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="26" width="10.75" customWidth="1"/>
+    <col min="10" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="28.625" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
+    <col min="15" max="21" width="18.375" customWidth="1"/>
+    <col min="22" max="22" width="13.5" customWidth="1"/>
+    <col min="23" max="28" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:20">
+    <row r="1" ht="40.5" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,134 +1246,152 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>100010001</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>1000016</v>
@@ -1394,21 +1421,27 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>100020001</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>1000017</v>
@@ -1438,21 +1471,27 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>100030001</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>1000018</v>
@@ -1482,21 +1521,27 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
         <v>48</v>
       </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>100040001</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>1000019</v>
@@ -1526,21 +1571,27 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7">
+        <v>48</v>
+      </c>
+      <c r="O7">
         <v>5</v>
       </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>100050001</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1000020</v>
@@ -1570,21 +1621,27 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>100060001</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1000021</v>
@@ -1614,21 +1671,27 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>5000</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:17">
+    <row r="10" customFormat="1" spans="1:19">
       <c r="A10">
         <v>100070001</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>1000022</v>
@@ -1655,21 +1718,27 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>100080001</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>1000023</v>
@@ -1696,21 +1765,27 @@
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>100090001</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>1000024</v>
@@ -1737,21 +1812,27 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>100100001</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>1000025</v>
@@ -1778,21 +1859,27 @@
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>5000</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:17">
+    <row r="14" customFormat="1" spans="1:19">
       <c r="A14">
         <v>200010001</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1000016</v>
@@ -1822,21 +1909,27 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>2000</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:17">
+    <row r="15" customFormat="1" spans="1:19">
       <c r="A15">
         <v>200020001</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>1000017</v>
@@ -1866,21 +1959,27 @@
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>5000</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:17">
+    <row r="16" customFormat="1" spans="1:19">
       <c r="A16">
         <v>200030001</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>1000018</v>
@@ -1910,21 +2009,27 @@
         <v>2</v>
       </c>
       <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
         <v>48</v>
       </c>
-      <c r="N16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16">
-        <v>2</v>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>2000</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:17">
+    <row r="17" customFormat="1" spans="1:19">
       <c r="A17">
         <v>200040001</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1000019</v>
@@ -1954,21 +2059,27 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17">
+        <v>48</v>
+      </c>
+      <c r="O17">
         <v>5</v>
       </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="18" customFormat="1" spans="1:17">
+    <row r="18" customFormat="1" spans="1:19">
       <c r="A18">
         <v>200050001</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>1000020</v>
@@ -1998,21 +2109,27 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>2000</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:17">
+    <row r="19" customFormat="1" spans="1:19">
       <c r="A19">
         <v>200060001</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>1000021</v>
@@ -2042,21 +2159,27 @@
         <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N19" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>5000</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:17">
+    <row r="20" customFormat="1" spans="1:19">
       <c r="A20">
         <v>200070001</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>1000022</v>
@@ -2083,21 +2206,27 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>2000</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:17">
+    <row r="21" customFormat="1" spans="1:19">
       <c r="A21">
         <v>200080001</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1000023</v>
@@ -2124,21 +2253,27 @@
         <v>3</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>5000</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:17">
+    <row r="22" customFormat="1" spans="1:19">
       <c r="A22">
         <v>200090001</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>1000024</v>
@@ -2165,21 +2300,27 @@
         <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>2000</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:17">
+    <row r="23" customFormat="1" spans="1:19">
       <c r="A23">
         <v>200100001</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>1000025</v>
@@ -2206,13 +2347,19 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -2228,10 +2375,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据表/NPC.xlsx
+++ b/数据表/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="67">
   <si>
     <t>//注释,npcid</t>
   </si>
@@ -85,7 +85,7 @@
     <t>被动技能</t>
   </si>
   <si>
-    <t>士兵建造时间单位毫秒秒</t>
+    <t>士兵建造时间单位秒</t>
   </si>
   <si>
     <t>下一级士兵</t>
@@ -1163,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1177,13 +1177,13 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="28.625" customWidth="1"/>
-    <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="21" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="26.75" customWidth="1"/>
+    <col min="14" max="16" width="23.75" customWidth="1"/>
+    <col min="17" max="21" width="18.375" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
     <col min="23" max="28" width="10.75" customWidth="1"/>
   </cols>
@@ -1386,7 +1386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>100010001</v>
       </c>
@@ -1433,24 +1433,30 @@
         <v>10</v>
       </c>
       <c r="S4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>100010002</v>
+      </c>
+      <c r="U4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:21">
       <c r="A5">
-        <v>100020001</v>
+        <v>100010002</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>1000017</v>
+        <v>1000016</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1459,198 +1465,222 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1001002</v>
+        <v>1001001</v>
       </c>
       <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>100010003</v>
+      </c>
+      <c r="U5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:21">
+      <c r="A6">
+        <v>100010003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>1000016</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
-        <v>100030001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>1000018</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1001003</v>
+        <v>1001001</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
         <v>48</v>
       </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>100010004</v>
+      </c>
+      <c r="U6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:21">
+      <c r="A7">
+        <v>100010004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>1000016</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1001001</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>100010005</v>
+      </c>
+      <c r="U7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:21">
+      <c r="A8">
+        <v>100010005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>1000016</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="S6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
-        <v>100040001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>1000019</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1001004</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="S7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
-        <v>100050001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8">
-        <v>1000020</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1001005</v>
+        <v>1001001</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
         <v>48</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>10</v>
       </c>
       <c r="S8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>100010006</v>
+      </c>
+      <c r="U8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:21">
       <c r="A9">
-        <v>100060001</v>
+        <v>100010006</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>1000021</v>
+        <v>1000016</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1659,48 +1689,54 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1001006</v>
+        <v>1001001</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
         <v>48</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>10</v>
       </c>
       <c r="S9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:19">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>100010007</v>
+      </c>
+      <c r="U9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:21">
       <c r="A10">
-        <v>100070001</v>
+        <v>100010007</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>1000022</v>
+        <v>1000016</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1709,16 +1745,19 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1001001</v>
       </c>
       <c r="L10">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
         <v>48</v>
@@ -1730,24 +1769,30 @@
         <v>10</v>
       </c>
       <c r="S10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>100010008</v>
+      </c>
+      <c r="U10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:21">
       <c r="A11">
-        <v>100080001</v>
+        <v>100010008</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>1000023</v>
+        <v>1000016</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1756,16 +1801,19 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1001001</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
         <v>48</v>
@@ -1777,18 +1825,24 @@
         <v>10</v>
       </c>
       <c r="S11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>100010009</v>
+      </c>
+      <c r="U11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:21">
       <c r="A12">
-        <v>100090001</v>
+        <v>100010009</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>1000024</v>
+        <v>1000016</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1803,45 +1857,54 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1001001</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
         <v>48</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>10</v>
       </c>
       <c r="S12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>100010010</v>
+      </c>
+      <c r="U12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:21">
       <c r="A13">
-        <v>100100001</v>
+        <v>100010010</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>1000025</v>
+        <v>1000016</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1850,33 +1913,42 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1001001</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
         <v>48</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>10</v>
       </c>
       <c r="S13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:19">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>100010011</v>
+      </c>
+      <c r="U13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:21">
       <c r="A14">
-        <v>200010001</v>
+        <v>100010011</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -1885,19 +1957,19 @@
         <v>1000016</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1921,445 +1993,2563 @@
         <v>10</v>
       </c>
       <c r="S14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:19">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>100010012</v>
+      </c>
+      <c r="U14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:21">
       <c r="A15">
+        <v>100010012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>1000016</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1001001</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>100010013</v>
+      </c>
+      <c r="U15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:21">
+      <c r="A16">
+        <v>100010013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>1000016</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1001001</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>100010014</v>
+      </c>
+      <c r="U16">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:21">
+      <c r="A17">
+        <v>100010014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>1000016</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1001001</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>100010015</v>
+      </c>
+      <c r="U17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:21">
+      <c r="A18">
+        <v>100010015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>1000016</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1001001</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>100010016</v>
+      </c>
+      <c r="U18">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:21">
+      <c r="A19">
+        <v>100010016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>1000016</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1001001</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>100010017</v>
+      </c>
+      <c r="U19">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:21">
+      <c r="A20">
+        <v>100010017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>1000016</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1001001</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>100010018</v>
+      </c>
+      <c r="U20">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:21">
+      <c r="A21">
+        <v>100010018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>1000016</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1001001</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>100010019</v>
+      </c>
+      <c r="U21">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:21">
+      <c r="A22">
+        <v>100010019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>1000016</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1001001</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>100010020</v>
+      </c>
+      <c r="U22">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:21">
+      <c r="A23">
+        <v>100010020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1000016</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1001001</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>100010021</v>
+      </c>
+      <c r="U23">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:21">
+      <c r="A24">
+        <v>100010021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>1000016</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1001001</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>100010022</v>
+      </c>
+      <c r="U24">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:21">
+      <c r="A25">
+        <v>100010022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>1000016</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1001001</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>100010023</v>
+      </c>
+      <c r="U25">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:21">
+      <c r="A26">
+        <v>100010023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>1000016</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1001001</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>100010024</v>
+      </c>
+      <c r="U26">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:21">
+      <c r="A27">
+        <v>100010024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>1000016</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1001001</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>100010025</v>
+      </c>
+      <c r="U27">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:21">
+      <c r="A28">
+        <v>100010025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>1000016</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1001001</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>100010026</v>
+      </c>
+      <c r="U28">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:21">
+      <c r="A29">
+        <v>100010026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>1000016</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1001001</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>100010027</v>
+      </c>
+      <c r="U29">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:21">
+      <c r="A30">
+        <v>100010027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>1000016</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1001001</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>100010028</v>
+      </c>
+      <c r="U30">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:21">
+      <c r="A31">
+        <v>100010028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>1000016</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1001001</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>100010029</v>
+      </c>
+      <c r="U31">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:21">
+      <c r="A32">
+        <v>100010029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>1000016</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1001001</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>100010030</v>
+      </c>
+      <c r="U32">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:21">
+      <c r="A33">
+        <v>100010030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>1000016</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1001001</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>100010031</v>
+      </c>
+      <c r="U33">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:21">
+      <c r="A34">
+        <v>100010031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>1000016</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1001001</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>47</v>
+      </c>
+      <c r="N34" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>100010032</v>
+      </c>
+      <c r="U34">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:21">
+      <c r="A35">
+        <v>100010032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>1000016</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1001001</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>100010033</v>
+      </c>
+      <c r="U35">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:21">
+      <c r="A36">
+        <v>100010033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>1000016</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1001001</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>100010034</v>
+      </c>
+      <c r="U36">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:21">
+      <c r="A37">
+        <v>100010034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>1000016</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>34</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1001001</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>100010035</v>
+      </c>
+      <c r="U37">
+        <v>7371</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:21">
+      <c r="A38">
+        <v>100010035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>1000016</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1001001</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>100010036</v>
+      </c>
+      <c r="U38">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:21">
+      <c r="A39">
+        <v>100010036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>1000016</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>36</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1001001</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>100010037</v>
+      </c>
+      <c r="U39">
+        <v>9009</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:21">
+      <c r="A40">
+        <v>100010037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>1000016</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1001001</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>100010038</v>
+      </c>
+      <c r="U40">
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:21">
+      <c r="A41">
+        <v>100010038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>1000016</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1001001</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>100010039</v>
+      </c>
+      <c r="U41">
+        <v>10647</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:21">
+      <c r="A42">
+        <v>100010039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>1000016</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>39</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1001001</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>100010040</v>
+      </c>
+      <c r="U42">
+        <v>11466</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:21">
+      <c r="A43">
+        <v>100010040</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>1000016</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1001001</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>47</v>
+      </c>
+      <c r="N43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>-1</v>
+      </c>
+      <c r="U43">
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44">
+        <v>100020001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>1000017</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1001002</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45">
+        <v>100030001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>1000018</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1001003</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46">
+        <v>100040001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>1000019</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>1001004</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47">
+        <v>100050001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>1000020</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>1001005</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48">
+        <v>100060001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>1000021</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>1001006</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48" t="s">
+        <v>58</v>
+      </c>
+      <c r="N48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:19">
+      <c r="A49">
+        <v>100070001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>1000022</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50">
+        <v>100080001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>1000023</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51">
+        <v>100090001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>1000024</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>64</v>
+      </c>
+      <c r="N51" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52">
+        <v>100100001</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>1000025</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:19">
+      <c r="A53">
+        <v>200010001</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>1000016</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1001001</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>47</v>
+      </c>
+      <c r="N53" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>10</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:19">
+      <c r="A54">
         <v>200020001</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="C15">
+      <c r="C54">
         <v>1000017</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
         <v>1001002</v>
       </c>
-      <c r="L15">
+      <c r="L54">
         <v>3</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M54" t="s">
         <v>50</v>
       </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>10</v>
-      </c>
-      <c r="S15">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:19">
-      <c r="A16">
+      <c r="N54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:19">
+      <c r="A55">
         <v>200030001</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B55" t="s">
         <v>51</v>
       </c>
-      <c r="C16">
+      <c r="C55">
         <v>1000018</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="G55">
         <v>3</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
         <v>1001003</v>
       </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55" t="s">
         <v>52</v>
       </c>
-      <c r="N16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16">
+      <c r="N55" t="s">
+        <v>48</v>
+      </c>
+      <c r="O55">
         <v>5</v>
       </c>
-      <c r="P16">
-        <v>10</v>
-      </c>
-      <c r="S16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:19">
-      <c r="A17">
+      <c r="P55">
+        <v>10</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:19">
+      <c r="A56">
         <v>200040001</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C17">
+      <c r="C56">
         <v>1000019</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="G56">
         <v>3</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
         <v>1001004</v>
       </c>
-      <c r="L17">
+      <c r="L56">
         <v>3</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M56" t="s">
         <v>54</v>
       </c>
-      <c r="N17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17">
+      <c r="N56" t="s">
+        <v>48</v>
+      </c>
+      <c r="O56">
         <v>5</v>
       </c>
-      <c r="P17">
-        <v>10</v>
-      </c>
-      <c r="S17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:19">
-      <c r="A18">
+      <c r="P56">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:19">
+      <c r="A57">
         <v>200050001</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="C18">
+      <c r="C57">
         <v>1000020</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>3</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="K57">
         <v>1001005</v>
       </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57" t="s">
         <v>56</v>
       </c>
-      <c r="N18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>10</v>
-      </c>
-      <c r="S18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:19">
-      <c r="A19">
+      <c r="N57" t="s">
+        <v>48</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:19">
+      <c r="A58">
         <v>200060001</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C19">
+      <c r="C58">
         <v>1000021</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
         <v>3</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
         <v>3</v>
       </c>
-      <c r="K19">
+      <c r="K58">
         <v>1001006</v>
       </c>
-      <c r="L19">
+      <c r="L58">
         <v>3</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M58" t="s">
         <v>58</v>
       </c>
-      <c r="N19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="S19">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:19">
-      <c r="A20">
+      <c r="N58" t="s">
+        <v>48</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>10</v>
+      </c>
+      <c r="S58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:19">
+      <c r="A59">
         <v>200070001</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="C20">
+      <c r="C59">
         <v>1000022</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="G59">
         <v>3</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
         <v>4</v>
       </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59" t="s">
         <v>60</v>
       </c>
-      <c r="N20" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="S20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:19">
-      <c r="A21">
+      <c r="N59" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>10</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:19">
+      <c r="A60">
         <v>200080001</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="C21">
+      <c r="C60">
         <v>1000023</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
         <v>4</v>
       </c>
-      <c r="G21">
+      <c r="G60">
         <v>3</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
         <v>4</v>
       </c>
-      <c r="L21">
+      <c r="L60">
         <v>3</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M60" t="s">
         <v>62</v>
       </c>
-      <c r="N21" t="s">
-        <v>48</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="S21">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:19">
-      <c r="A22">
+      <c r="N60" t="s">
+        <v>48</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>10</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:19">
+      <c r="A61">
         <v>200090001</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C22">
+      <c r="C61">
         <v>1000024</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>3</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
         <v>5</v>
       </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61" t="s">
         <v>64</v>
       </c>
-      <c r="N22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22">
+      <c r="N61" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61">
         <v>3</v>
       </c>
-      <c r="P22">
-        <v>10</v>
-      </c>
-      <c r="S22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:19">
-      <c r="A23">
+      <c r="P61">
+        <v>10</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:19">
+      <c r="A62">
         <v>200100001</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="C23">
+      <c r="C62">
         <v>1000025</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
         <v>3</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="L62">
         <v>3</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M62" t="s">
         <v>66</v>
       </c>
-      <c r="N23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O23">
+      <c r="N62" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62">
         <v>3</v>
       </c>
-      <c r="P23">
-        <v>10</v>
-      </c>
-      <c r="S23">
-        <v>5000</v>
+      <c r="P62">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2375,15 +4565,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="31.75" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据表/NPC.xlsx
+++ b/数据表/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>士兵模型</t>
   </si>
   <si>
-    <t>士兵的费值</t>
+    <t>士兵的费值（也代表士兵的战力和兵力）</t>
   </si>
   <si>
     <t>士兵基础属性(属性id，值)，(属性id，值)</t>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
